--- a/outputs-HGR-r202-archive/g__CAG-791.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-791.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,18 +459,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT57658.fa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-16.04862608488929</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp000431495</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp000431495(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT57690.fa</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>-15.76543825665451</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>s__CAG-791 sp000431495</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp000431495(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58392.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-17.19533930795949</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp000431495</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>s__CAG-791 sp000431495(reject)</t>
         </is>
